--- a/服务网点.xlsx
+++ b/服务网点.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="219">
   <si>
     <t>城市</t>
   </si>
@@ -71,6 +71,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">【地址】深圳市南山区学府路软件产业基地1栋A座 【电话】186-1714-7510 </t>
     </r>
     <r>
@@ -108,6 +115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">【地址】深圳市南山区学府路软件产业基地1栋A座 【电话】186-1714-7511 </t>
     </r>
     <r>
@@ -311,6 +325,9 @@
 【联系人】漫游超人</t>
   </si>
   <si>
+    <t>北京</t>
+  </si>
+  <si>
     <t>首都机场T2到达柜台</t>
   </si>
   <si>
@@ -372,9 +389,6 @@
     <t>【地址】北京大兴国际机场国际到达一层19号门正对面移动通讯租赁“漫游超人”柜台（安检外）；
 【电话】185-0053-7386/185-0190-4310
 【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>北京</t>
   </si>
   <si>
     <t>北京仓库</t>
@@ -422,410 +436,172 @@
     <t>7:00-22：00</t>
   </si>
   <si>
-    <t>中国香港</t>
+    <t>仓位名称</t>
+  </si>
+  <si>
+    <t>仓位编码</t>
+  </si>
+  <si>
+    <t>北京仓</t>
+  </si>
+  <si>
+    <t>CN00006</t>
+  </si>
+  <si>
+    <t>北京首都T3柜台</t>
+  </si>
+  <si>
+    <t>CN00036</t>
+  </si>
+  <si>
+    <t>北京首都T2柜台</t>
+  </si>
+  <si>
+    <t>CN00037</t>
+  </si>
+  <si>
+    <t>北京大兴柜台</t>
+  </si>
+  <si>
+    <t>WHE00048</t>
+  </si>
+  <si>
+    <t>CN00001</t>
+  </si>
+  <si>
+    <t>深圳蛇口</t>
+  </si>
+  <si>
+    <t>CN02777</t>
+  </si>
+  <si>
+    <t>深圳南山第三代机柜</t>
+  </si>
+  <si>
+    <t>WHE00138T230918173018</t>
+  </si>
+  <si>
+    <t>深圳宝安T3柜台</t>
+  </si>
+  <si>
+    <t>CN00313</t>
+  </si>
+  <si>
+    <t>广州白云T2柜台</t>
+  </si>
+  <si>
+    <t>WHE00006</t>
+  </si>
+  <si>
+    <t>广州百汇自助机柜</t>
+  </si>
+  <si>
+    <t>WHE00165T240402180342</t>
+  </si>
+  <si>
+    <t>上海仓</t>
+  </si>
+  <si>
+    <t>CN00004</t>
+  </si>
+  <si>
+    <t>上海浦东T2出发柜台</t>
+  </si>
+  <si>
+    <t>CN00032</t>
+  </si>
+  <si>
+    <t>上海浦东T1出发柜台</t>
+  </si>
+  <si>
+    <t>CN00033</t>
+  </si>
+  <si>
+    <t>浦东T1出发层机柜</t>
+  </si>
+  <si>
+    <t>CN02724</t>
+  </si>
+  <si>
+    <t>成都仓</t>
+  </si>
+  <si>
+    <t>CN00008</t>
+  </si>
+  <si>
+    <t>成都天府T1柜台</t>
+  </si>
+  <si>
+    <t>CN00038</t>
+  </si>
+  <si>
+    <t>WHE00097T230314101736</t>
+  </si>
+  <si>
+    <t>青岛合作柜台</t>
+  </si>
+  <si>
+    <t>WHE00099T230316175001</t>
   </si>
   <si>
     <t>中国香港WIFI合作柜台</t>
   </si>
   <si>
-    <t>【地址】中国香港国际机场一号客运大楼第五层接机大堂A区A01柜台
-【电话】+852 31840668/+852 62276633
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>08:00-17:00</t>
-  </si>
-  <si>
-    <t>需要提前1天下单</t>
-  </si>
-  <si>
-    <t>沈阳</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 沈阳桃仙T3合作柜台</t>
-  </si>
-  <si>
-    <t>【地址】辽宁省沈阳市浑南区桃仙国际机场T3航站楼二楼BC岛之间旅游团队集合处L9柜台
-【电话】187-0404-9312
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7：00-17：00</t>
-  </si>
-  <si>
-    <t>下单时间+4小时后可自取</t>
-  </si>
-  <si>
-    <t>郑州</t>
+    <t>WHE00127T230704114159</t>
+  </si>
+  <si>
+    <t>WHE00111T230426100906</t>
+  </si>
+  <si>
+    <t>沈阳桃仙T3合作柜台</t>
+  </si>
+  <si>
+    <t>WHE00112T230426185049</t>
+  </si>
+  <si>
+    <t>杭州萧山T4柜台</t>
+  </si>
+  <si>
+    <t>CN00045</t>
   </si>
   <si>
     <t>郑州合作柜台</t>
   </si>
   <si>
-    <t>【地址】郑州市新郑国际机场T2航站楼二楼国内到达出口右手边"汽车租赁“柜台（巴士自助售票机旁）
-【电话】193-3997-5155
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>西安</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 西安市区合作网点</t>
-  </si>
-  <si>
-    <t>【地址】西安市新城区中山门街道新中东巷优行旅游 
-【电话】181-9185-0580
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>9：30-18：00</t>
-  </si>
-  <si>
-    <t>西安咸阳机场合作网点</t>
-  </si>
-  <si>
-    <t>【地址】西安咸阳机场T3航站楼国际出发322门进门右手扶梯下楼 “境外来宾支付中心” 前台（311门隔壁国际到达正对面）
-【电话】185-8196-1628
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>8:00-22:00</t>
-  </si>
-  <si>
-    <t>南京</t>
+    <t>WHE00124T230530103021</t>
+  </si>
+  <si>
+    <t>西安市区合作网点</t>
+  </si>
+  <si>
+    <t>WHE00129T230721144105</t>
   </si>
   <si>
     <t>南京禄口T2柜台</t>
   </si>
   <si>
-    <t>【地址】（海关安检前）南京市江宁区禄口国际机场2号航站楼3楼出发层1号门附近03号漫游超人柜台
-【电话】153-8090-5373
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>6：00-20：00</t>
-  </si>
-  <si>
-    <t>天津</t>
+    <t>CN00035</t>
   </si>
   <si>
     <t>天津机场T1合作柜台</t>
   </si>
   <si>
-    <t>【地址】天津滨海国际机场T1航站楼1楼国际到达3号门旁“出入境通讯服务--漫游超人”柜台
-【电话】156-6268-6525
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>6：00-17：00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可取还
-</t>
-  </si>
-  <si>
-    <t>大连</t>
+    <t xml:space="preserve">WHE00130T230727145927 </t>
   </si>
   <si>
     <t>大连合作柜台</t>
   </si>
   <si>
-    <t>【地址】大连市中山区长江路201号普照电子城一楼B05柜台
-【电话】186-0411-7825（备用电话：131-3000-5343）
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>9：00-17：30</t>
-  </si>
-  <si>
-    <t>无锡</t>
+    <t>WHE00139T230919182916</t>
   </si>
   <si>
     <t>无锡合作柜台</t>
   </si>
   <si>
-    <t>【地址】江苏省无锡市苏南硕放国际机场T1航站楼出发层2楼2号门对面205号柜台（旅客服务中心）
-【电话】153-5809-6101
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7：00-19：30</t>
-  </si>
-  <si>
-    <t>济南</t>
+    <t xml:space="preserve"> WHE00140T230922180801</t>
   </si>
   <si>
     <t>济南合作柜台</t>
-  </si>
-  <si>
-    <t>【地址】济南遥墙国际机场2楼5号/6号门进门左手边“印尼狮航”柜台
-【电话】156-6273-3896
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>6：00-19：00</t>
-  </si>
-  <si>
-    <t>青岛</t>
-  </si>
-  <si>
-    <t>青岛出发柜台</t>
-  </si>
-  <si>
-    <t>【地址】（海关安检后）青岛市胶东国际机场航站楼4楼国际出发隔离区内过安检后向前30米漫游超人店铺（携程外币兑换旁）
-【电话】156-6622-4101
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7：00--航班结束前1小时</t>
-  </si>
-  <si>
-    <t>青岛到达柜台</t>
-  </si>
-  <si>
-    <t>【地址】青岛国际机场1楼国际到达出口向前150米2号门对面WIFI服务店铺
-【电话】137-3092-0968/156-6622-4101
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>8：30--航班结束</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>新疆合作柜台</t>
-  </si>
-  <si>
-    <t>【地址】乌鲁木齐地窝堡国际机场T3航站楼3层出发大厅2号门旁《TOMMY GIORGIO》店铺前台
-【电话】176-9991-6382
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>06：30-21：30     </t>
-  </si>
-  <si>
-    <t>需要提前2小时下单</t>
-  </si>
-  <si>
-    <t>厦门</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 厦门高崎机场合作柜台</t>
-  </si>
-  <si>
-    <t>【地址】厦门高崎国际机场T3航站楼一楼到达层5号门对面国际到达口右手边电话卡服务中心柜台（安检区外）
-【电话】137-2377-8786
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7：00-23：00</t>
-  </si>
-  <si>
-    <t>需要提前4小时下单</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>重庆江北机场合作柜台T3</t>
-  </si>
-  <si>
-    <t>【地址】重庆市渝北区江北机场T3A航站楼国内出发3号门3D韵达快递柜台（安检区外）
-【电话】172-6428-5706，备用：185-2340-8814
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>6：00-21：00</t>
-  </si>
-  <si>
-    <t>杭州</t>
-  </si>
-  <si>
-    <t>杭州T4合作柜台</t>
-  </si>
-  <si>
-    <t>【地址】杭州市萧山区萧山国际机场T4航站楼4楼出发层29号门旁空港贵宾服务柜台漫游超人（海关安检前）
-【电话】155-5708-9900
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7:00--21:00</t>
-  </si>
-  <si>
-    <t>广西</t>
-  </si>
-  <si>
-    <t>广西东兴口岸合作网点</t>
-  </si>
-  <si>
-    <t>【地址】广西壮族自治区东兴市国门景区出境口岸“出境人员通道”旁边新华速汇货币兑换柜台
-【电话】137-0771-0050
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8：00-20：00      </t>
-  </si>
-  <si>
-    <t>福州</t>
-  </si>
-  <si>
-    <t>福州长乐机场合作网点</t>
-  </si>
-  <si>
-    <t>【地址】福州长乐国际机场二楼国际/港澳台出发大厅B岛“中国体育彩票”前台
-【电话】170-0211-0039
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08：30-20：30         </t>
-  </si>
-  <si>
-    <t>仓位名称</t>
-  </si>
-  <si>
-    <t>仓位编码</t>
-  </si>
-  <si>
-    <t>北京仓</t>
-  </si>
-  <si>
-    <t>CN00006</t>
-  </si>
-  <si>
-    <t>北京首都T3柜台</t>
-  </si>
-  <si>
-    <t>CN00036</t>
-  </si>
-  <si>
-    <t>北京首都T2柜台</t>
-  </si>
-  <si>
-    <t>CN00037</t>
-  </si>
-  <si>
-    <t>北京大兴柜台</t>
-  </si>
-  <si>
-    <t>WHE00048</t>
-  </si>
-  <si>
-    <t>CN00001</t>
-  </si>
-  <si>
-    <t>深圳蛇口</t>
-  </si>
-  <si>
-    <t>CN02777</t>
-  </si>
-  <si>
-    <t>深圳南山第三代机柜</t>
-  </si>
-  <si>
-    <t>WHE00138T230918173018</t>
-  </si>
-  <si>
-    <t>深圳宝安T3柜台</t>
-  </si>
-  <si>
-    <t>CN00313</t>
-  </si>
-  <si>
-    <t>广州白云T2柜台</t>
-  </si>
-  <si>
-    <t>WHE00006</t>
-  </si>
-  <si>
-    <t>广州百汇自助机柜</t>
-  </si>
-  <si>
-    <t>WHE00165T240402180342</t>
-  </si>
-  <si>
-    <t>上海仓</t>
-  </si>
-  <si>
-    <t>CN00004</t>
-  </si>
-  <si>
-    <t>上海浦东T2出发柜台</t>
-  </si>
-  <si>
-    <t>CN00032</t>
-  </si>
-  <si>
-    <t>上海浦东T1出发柜台</t>
-  </si>
-  <si>
-    <t>CN00033</t>
-  </si>
-  <si>
-    <t>浦东T1出发层机柜</t>
-  </si>
-  <si>
-    <t>CN02724</t>
-  </si>
-  <si>
-    <t>成都仓</t>
-  </si>
-  <si>
-    <t>CN00008</t>
-  </si>
-  <si>
-    <t>成都天府T1柜台</t>
-  </si>
-  <si>
-    <t>CN00038</t>
-  </si>
-  <si>
-    <t>WHE00097T230314101736</t>
-  </si>
-  <si>
-    <t>青岛合作柜台</t>
-  </si>
-  <si>
-    <t>WHE00099T230316175001</t>
-  </si>
-  <si>
-    <t>WHE00127T230704114159</t>
-  </si>
-  <si>
-    <t>WHE00111T230426100906</t>
-  </si>
-  <si>
-    <t>沈阳桃仙T3合作柜台</t>
-  </si>
-  <si>
-    <t>WHE00112T230426185049</t>
-  </si>
-  <si>
-    <t>杭州萧山T4柜台</t>
-  </si>
-  <si>
-    <t>CN00045</t>
-  </si>
-  <si>
-    <t>WHE00124T230530103021</t>
-  </si>
-  <si>
-    <t>西安市区合作网点</t>
-  </si>
-  <si>
-    <t>WHE00129T230721144105</t>
-  </si>
-  <si>
-    <t>CN00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHE00130T230727145927 </t>
-  </si>
-  <si>
-    <t>WHE00139T230919182916</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WHE00140T230922180801</t>
   </si>
   <si>
     <t xml:space="preserve"> WHE00141T230925101520</t>
@@ -866,18 +642,30 @@
     <t>WHE00156T231227174922</t>
   </si>
   <si>
+    <t>杭州T4合作柜台</t>
+  </si>
+  <si>
     <t>WHE00161T240131161956</t>
   </si>
   <si>
     <t>WHE00166T240411094356</t>
   </si>
   <si>
+    <t>广西东兴口岸合作网点</t>
+  </si>
+  <si>
     <t>WHE00174T240717163531</t>
   </si>
   <si>
+    <t>福州长乐机场合作网点</t>
+  </si>
+  <si>
     <t>WHE00175T240724174804</t>
   </si>
   <si>
+    <t>西安咸阳机场合作网点</t>
+  </si>
+  <si>
     <t>WHE00178T240729184734</t>
   </si>
   <si>
@@ -917,6 +705,9 @@
     <t>辽宁</t>
   </si>
   <si>
+    <t>天津</t>
+  </si>
+  <si>
     <t>内蒙</t>
   </si>
   <si>
@@ -956,6 +747,9 @@
     <t>广东</t>
   </si>
   <si>
+    <t>广西</t>
+  </si>
+  <si>
     <t>海南</t>
   </si>
   <si>
@@ -963,6 +757,9 @@
   </si>
   <si>
     <t>四川</t>
+  </si>
+  <si>
+    <t>重庆</t>
   </si>
   <si>
     <t>云南</t>
@@ -2185,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2815,15 +2612,18 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" ht="112.5" spans="2:11">
+    <row r="20" ht="112.5" spans="1:11">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>38</v>
@@ -2845,15 +2645,18 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" ht="135" spans="2:11">
+    <row r="21" ht="135" spans="1:11">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
       <c r="B21" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>38</v>
@@ -2865,7 +2668,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>18</v>
@@ -2875,12 +2678,15 @@
       </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" ht="112.5" spans="2:11">
+    <row r="22" ht="112.5" spans="1:11">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
       <c r="B22" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>22</v>
@@ -2895,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>19</v>
@@ -2905,12 +2711,15 @@
       </c>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" ht="90" spans="2:11">
+    <row r="23" ht="90" spans="1:11">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
       <c r="B23" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>22</v>
@@ -2925,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>19</v>
@@ -2935,15 +2744,18 @@
       </c>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" ht="112.5" spans="2:11">
+    <row r="24" ht="112.5" spans="1:11">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
       <c r="B24" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>34</v>
@@ -2965,15 +2777,18 @@
       </c>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" ht="112.5" spans="2:11">
+    <row r="25" ht="112.5" spans="1:11">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>15</v>
@@ -2997,7 +2812,7 @@
     </row>
     <row r="26" ht="112.5" spans="1:11">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>94</v>
@@ -3084,7 +2899,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>19</v>
@@ -3127,598 +2942,236 @@
       </c>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" ht="90" spans="1:11">
-      <c r="A30" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>110</v>
-      </c>
+    <row r="30" ht="22.5" spans="1:11">
+      <c r="A30" s="30"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" ht="90" spans="1:11">
-      <c r="A31" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>115</v>
-      </c>
+    <row r="31" ht="22.5" spans="1:11">
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" ht="112.5" spans="1:11">
-      <c r="A32" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>115</v>
-      </c>
+    <row r="32" ht="22.5" spans="1:11">
+      <c r="A32" s="30"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" ht="90" spans="1:11">
-      <c r="A33" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>30</v>
-      </c>
+    <row r="33" ht="22.5" spans="1:11">
+      <c r="A33" s="27"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" ht="112.5" spans="1:11">
-      <c r="A34" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>110</v>
-      </c>
+    <row r="34" ht="22.5" spans="1:11">
+      <c r="A34" s="27"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" ht="112.5" spans="1:11">
-      <c r="A35" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="21" t="s">
-        <v>30</v>
-      </c>
+    <row r="35" ht="22.5" spans="1:11">
+      <c r="A35" s="30"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="34"/>
     </row>
-    <row r="36" ht="112.5" spans="1:11">
-      <c r="A36" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>110</v>
-      </c>
+    <row r="36" ht="22.5" spans="1:11">
+      <c r="A36" s="30"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="34"/>
     </row>
-    <row r="37" ht="112.5" spans="1:11">
-      <c r="A37" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>30</v>
-      </c>
+    <row r="37" ht="22.5" spans="1:11">
+      <c r="A37" s="30"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="34"/>
     </row>
-    <row r="38" ht="112.5" spans="1:11">
-      <c r="A38" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>115</v>
-      </c>
+    <row r="38" ht="22.5" spans="1:11">
+      <c r="A38" s="30"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" ht="90" spans="1:11">
-      <c r="A39" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>110</v>
-      </c>
+    <row r="39" ht="22.5" spans="1:11">
+      <c r="A39" s="30"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" ht="112.5" spans="1:11">
-      <c r="A40" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="21" t="s">
-        <v>30</v>
-      </c>
+    <row r="40" ht="22.5" spans="2:11">
+      <c r="B40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" ht="90" spans="1:11">
-      <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>19</v>
-      </c>
+    <row r="41" ht="22.5" spans="2:11">
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" ht="112.5" spans="1:11">
-      <c r="A42" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>158</v>
-      </c>
+    <row r="42" ht="22.5" spans="1:11">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" ht="112.5" spans="1:11">
-      <c r="A43" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="21" t="s">
-        <v>163</v>
-      </c>
+    <row r="43" ht="22.5" spans="1:11">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" ht="112.5" spans="1:11">
-      <c r="A44" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>30</v>
-      </c>
+    <row r="44" ht="22.5" spans="1:11">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" ht="112.5" spans="1:11">
-      <c r="A45" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="21" t="s">
-        <v>163</v>
-      </c>
+    <row r="45" ht="22.5" spans="1:11">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" ht="112.5" spans="1:11">
-      <c r="A46" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="21" t="s">
-        <v>158</v>
-      </c>
+    <row r="46" ht="22.5" spans="1:11">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" ht="90" spans="1:11">
-      <c r="A47" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="21" t="s">
-        <v>158</v>
-      </c>
+    <row r="47" ht="22.5" spans="1:11">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
   </sheetData>
@@ -3741,42 +3194,42 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
@@ -3784,95 +3237,95 @@
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
       <c r="A15" s="15" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:2">
@@ -3880,23 +3333,23 @@
         <v>103</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:2">
       <c r="A20" s="13" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
@@ -3904,103 +3357,103 @@
         <v>65</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:2">
       <c r="A22" s="13" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:2">
       <c r="A23" s="13" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="13" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:2">
       <c r="A25" s="13" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:2">
       <c r="A31" s="16" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:2">
       <c r="A32" s="13" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:2">
@@ -4008,23 +3461,23 @@
         <v>40</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:2">
       <c r="A35" s="13" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:2">
       <c r="A36" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:2">
@@ -4032,15 +3485,15 @@
         <v>43</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:2">
       <c r="A38" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:2">
@@ -4048,15 +3501,15 @@
         <v>177</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:2">
@@ -4064,15 +3517,15 @@
         <v>31</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:2">
@@ -4080,7 +3533,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4103,19 +3556,19 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
@@ -4123,7 +3576,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -4140,7 +3593,7 @@
         <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -4157,7 +3610,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="C4" s="4">
         <v>4</v>
@@ -4174,7 +3627,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -4191,7 +3644,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4208,7 +3661,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
@@ -4225,7 +3678,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -4242,7 +3695,7 @@
         <v>94</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -4259,7 +3712,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
@@ -4276,7 +3729,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
@@ -4293,7 +3746,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -4327,7 +3780,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
@@ -4344,7 +3797,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -4358,10 +3811,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -4375,10 +3828,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -4392,10 +3845,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
@@ -4409,10 +3862,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C19" s="9">
         <v>4</v>
@@ -4426,10 +3879,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
@@ -4443,10 +3896,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="C21" s="9">
         <v>4</v>
@@ -4463,7 +3916,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="C22" s="11">
         <v>3</v>
@@ -4480,7 +3933,7 @@
         <v>98</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -4497,7 +3950,7 @@
         <v>98</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="C24" s="11">
         <v>5</v>
@@ -4514,7 +3967,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C25" s="11">
         <v>4</v>
@@ -4531,7 +3984,7 @@
         <v>98</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="C26" s="11">
         <v>6</v>
@@ -4548,7 +4001,7 @@
         <v>98</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="C27" s="11">
         <v>6</v>
@@ -4565,7 +4018,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C28" s="11">
         <v>6</v>
@@ -4582,7 +4035,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="C29" s="11">
         <v>4</v>
@@ -4596,7 +4049,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/服务网点.xlsx
+++ b/服务网点.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="198">
   <si>
     <t>城市</t>
   </si>
@@ -339,200 +339,112 @@
     <t>8：00-17：00</t>
   </si>
   <si>
-    <t>首都机场T3到达柜台</t>
-  </si>
-  <si>
-    <t>【地址】首都机场T3航站楼国际到达二层行李提取大厅38号转盘旁“漫游超人”柜台(38和39号转盘中间通道，正对中国海关B出口)(安检区内)
-【电话】138-1063-7384
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>8：00-20：00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微信、支付宝  </t>
-  </si>
-  <si>
-    <t>首都机场T2出发柜台</t>
-  </si>
-  <si>
-    <t>【地址】首都机场T2航站楼二层公共区国际出发大厅4号门对面67-68“漫游超人”柜台（安检区外）
-【电话】157-0121-9460
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>首都机场T3出发柜台</t>
-  </si>
-  <si>
-    <t>【地址】北京首都机场T3航站楼四层出发大厅D岛岛头
-【电话】138-1063-7384
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">微信、支付宝 </t>
-  </si>
-  <si>
-    <t>北京大兴出发柜台</t>
-  </si>
-  <si>
-    <t>【地址】北京大兴国际机场4楼国际出发大厅（安检内）E指廊右侧移动通讯租赁“漫游超人”柜台 
-【电话】185-0053-7386
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7：00-19：00</t>
-  </si>
-  <si>
-    <t>北京大兴到达柜台</t>
-  </si>
-  <si>
-    <t>【地址】北京大兴国际机场国际到达一层19号门正对面移动通讯租赁“漫游超人”柜台（安检外）；
-【电话】185-0053-7386/185-0190-4310
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>北京仓库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【地址】北京市顺义区首都机场路翼之城七号楼
-【电话】153-2120-9973
-【联系人】漫游超人
-</t>
-  </si>
-  <si>
-    <t>9:00-18:00</t>
-  </si>
-  <si>
     <t>成都</t>
   </si>
   <si>
-    <t>成都仓库</t>
-  </si>
-  <si>
-    <t>【地址】成都市简阳市天府机场T1航站楼4楼出发层
-【电话】187-2846-5706
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>成都天府机场T1柜台</t>
-  </si>
-  <si>
-    <t>【地址】成都市简阳市天府机场T1航站楼4楼出发层16号门对面漫游超人店铺（安检外）
-【电话】193-0806-5706
-【联系人】漫游超人</t>
-  </si>
-  <si>
     <t>武汉</t>
   </si>
   <si>
+    <t>仓位名称</t>
+  </si>
+  <si>
+    <t>仓位编码</t>
+  </si>
+  <si>
+    <t>北京仓</t>
+  </si>
+  <si>
+    <t>CN00006</t>
+  </si>
+  <si>
+    <t>北京首都T3柜台</t>
+  </si>
+  <si>
+    <t>CN00036</t>
+  </si>
+  <si>
+    <t>北京首都T2柜台</t>
+  </si>
+  <si>
+    <t>CN00037</t>
+  </si>
+  <si>
+    <t>北京大兴柜台</t>
+  </si>
+  <si>
+    <t>WHE00048</t>
+  </si>
+  <si>
+    <t>CN00001</t>
+  </si>
+  <si>
+    <t>深圳蛇口</t>
+  </si>
+  <si>
+    <t>CN02777</t>
+  </si>
+  <si>
+    <t>深圳南山第三代机柜</t>
+  </si>
+  <si>
+    <t>WHE00138T230918173018</t>
+  </si>
+  <si>
+    <t>深圳宝安T3柜台</t>
+  </si>
+  <si>
+    <t>CN00313</t>
+  </si>
+  <si>
+    <t>广州白云T2柜台</t>
+  </si>
+  <si>
+    <t>WHE00006</t>
+  </si>
+  <si>
+    <t>广州百汇自助机柜</t>
+  </si>
+  <si>
+    <t>WHE00165T240402180342</t>
+  </si>
+  <si>
+    <t>上海仓</t>
+  </si>
+  <si>
+    <t>CN00004</t>
+  </si>
+  <si>
+    <t>上海浦东T2出发柜台</t>
+  </si>
+  <si>
+    <t>CN00032</t>
+  </si>
+  <si>
+    <t>上海浦东T1出发柜台</t>
+  </si>
+  <si>
+    <t>CN00033</t>
+  </si>
+  <si>
+    <t>浦东T1出发层机柜</t>
+  </si>
+  <si>
+    <t>CN02724</t>
+  </si>
+  <si>
+    <t>成都仓</t>
+  </si>
+  <si>
+    <t>CN00008</t>
+  </si>
+  <si>
+    <t>成都天府T1柜台</t>
+  </si>
+  <si>
+    <t>CN00038</t>
+  </si>
+  <si>
     <t>武汉合作柜台T3</t>
-  </si>
-  <si>
-    <t>【地址】武汉天河机场T3航站楼4楼出发层3号门对面H岛38号-44号柜台
-【电话】027-65590236
-【联系人】漫游超人</t>
-  </si>
-  <si>
-    <t>7:00-22：00</t>
-  </si>
-  <si>
-    <t>仓位名称</t>
-  </si>
-  <si>
-    <t>仓位编码</t>
-  </si>
-  <si>
-    <t>北京仓</t>
-  </si>
-  <si>
-    <t>CN00006</t>
-  </si>
-  <si>
-    <t>北京首都T3柜台</t>
-  </si>
-  <si>
-    <t>CN00036</t>
-  </si>
-  <si>
-    <t>北京首都T2柜台</t>
-  </si>
-  <si>
-    <t>CN00037</t>
-  </si>
-  <si>
-    <t>北京大兴柜台</t>
-  </si>
-  <si>
-    <t>WHE00048</t>
-  </si>
-  <si>
-    <t>CN00001</t>
-  </si>
-  <si>
-    <t>深圳蛇口</t>
-  </si>
-  <si>
-    <t>CN02777</t>
-  </si>
-  <si>
-    <t>深圳南山第三代机柜</t>
-  </si>
-  <si>
-    <t>WHE00138T230918173018</t>
-  </si>
-  <si>
-    <t>深圳宝安T3柜台</t>
-  </si>
-  <si>
-    <t>CN00313</t>
-  </si>
-  <si>
-    <t>广州白云T2柜台</t>
-  </si>
-  <si>
-    <t>WHE00006</t>
-  </si>
-  <si>
-    <t>广州百汇自助机柜</t>
-  </si>
-  <si>
-    <t>WHE00165T240402180342</t>
-  </si>
-  <si>
-    <t>上海仓</t>
-  </si>
-  <si>
-    <t>CN00004</t>
-  </si>
-  <si>
-    <t>上海浦东T2出发柜台</t>
-  </si>
-  <si>
-    <t>CN00032</t>
-  </si>
-  <si>
-    <t>上海浦东T1出发柜台</t>
-  </si>
-  <si>
-    <t>CN00033</t>
-  </si>
-  <si>
-    <t>浦东T1出发层机柜</t>
-  </si>
-  <si>
-    <t>CN02724</t>
-  </si>
-  <si>
-    <t>成都仓</t>
-  </si>
-  <si>
-    <t>CN00008</t>
-  </si>
-  <si>
-    <t>成都天府T1柜台</t>
-  </si>
-  <si>
-    <t>CN00038</t>
   </si>
   <si>
     <t>WHE00097T230314101736</t>
@@ -696,6 +608,9 @@
     <t>最晚下单间隔</t>
   </si>
   <si>
+    <t>北京仓库</t>
+  </si>
+  <si>
     <t>黑龙江</t>
   </si>
   <si>
@@ -754,6 +669,9 @@
   </si>
   <si>
     <t>福建</t>
+  </si>
+  <si>
+    <t>成都仓库</t>
   </si>
   <si>
     <t>四川</t>
@@ -2645,301 +2563,139 @@
       </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" ht="135" spans="1:11">
+    <row r="21" ht="22.5" spans="1:11">
       <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" ht="112.5" spans="1:11">
+    <row r="22" ht="22.5" spans="1:11">
       <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" ht="90" spans="1:11">
+    <row r="23" ht="22.5" spans="1:11">
       <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" ht="112.5" spans="1:11">
+    <row r="24" ht="22.5" spans="1:11">
       <c r="A24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" ht="112.5" spans="1:11">
+    <row r="25" ht="22.5" spans="1:11">
       <c r="A25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" ht="112.5" spans="1:11">
+    <row r="26" ht="22.5" spans="1:11">
       <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" ht="90" spans="1:11">
+    <row r="27" ht="22.5" spans="1:11">
       <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>19</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" ht="90" spans="1:11">
+    <row r="28" ht="22.5" spans="1:11">
       <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" ht="90" spans="1:11">
+    <row r="29" ht="22.5" spans="1:11">
       <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="21"/>
     </row>
     <row r="30" ht="22.5" spans="1:11">
@@ -3194,42 +2950,42 @@
   <sheetData>
     <row r="1" ht="16.5" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:2">
@@ -3237,119 +2993,119 @@
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
       <c r="A15" s="15" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:2">
       <c r="A18" s="13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="1:2">
       <c r="A20" s="13" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:2">
@@ -3357,103 +3113,103 @@
         <v>65</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:2">
       <c r="A22" s="13" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:2">
       <c r="A23" s="13" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:2">
       <c r="A24" s="13" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:2">
       <c r="A25" s="13" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:2">
       <c r="A30" s="13" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" ht="16.5" spans="1:2">
       <c r="A31" s="16" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:2">
       <c r="A32" s="13" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:2">
@@ -3461,23 +3217,23 @@
         <v>40</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:2">
       <c r="A35" s="13" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:2">
       <c r="A36" s="13" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:2">
@@ -3485,31 +3241,31 @@
         <v>43</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:2">
       <c r="A38" s="14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:2">
       <c r="A39" s="14" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:2">
@@ -3517,15 +3273,15 @@
         <v>31</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:2">
@@ -3533,7 +3289,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3556,27 +3312,27 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -3590,10 +3346,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -3607,10 +3363,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4">
         <v>4</v>
@@ -3624,10 +3380,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -3641,10 +3397,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -3658,10 +3414,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
@@ -3675,10 +3431,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -3692,10 +3448,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
@@ -3712,7 +3468,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
@@ -3729,7 +3485,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
@@ -3746,7 +3502,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -3780,7 +3536,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
@@ -3797,7 +3553,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
@@ -3811,10 +3567,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -3828,10 +3584,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -3845,10 +3601,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
@@ -3862,10 +3618,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C19" s="9">
         <v>4</v>
@@ -3879,10 +3635,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
@@ -3896,10 +3652,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C21" s="9">
         <v>4</v>
@@ -3913,10 +3669,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C22" s="11">
         <v>3</v>
@@ -3930,10 +3686,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -3947,10 +3703,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C24" s="11">
         <v>5</v>
@@ -3964,10 +3720,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C25" s="11">
         <v>4</v>
@@ -3981,10 +3737,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C26" s="11">
         <v>6</v>
@@ -3998,10 +3754,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C27" s="11">
         <v>6</v>
@@ -4015,10 +3771,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C28" s="11">
         <v>6</v>
@@ -4032,10 +3788,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C29" s="11">
         <v>4</v>
@@ -4049,7 +3805,7 @@
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
